--- a/backend/variables/variables.xlsx
+++ b/backend/variables/variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Area</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Population Density</t>
   </si>
   <si>
@@ -235,7 +232,7 @@
     <t>Education Level - Bachelors Degree</t>
   </si>
   <si>
-    <t>percentatleastbachelors</t>
+    <t>percentadultswithatleastbachelo</t>
   </si>
   <si>
     <t>z_percentadultswithatleastbache</t>
@@ -537,7 +534,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +546,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -579,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -587,10 +590,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -907,14 +907,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="50.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="8.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="50.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="8.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1019,15 +1019,9 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1033,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1055,16 +1049,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -1079,16 +1073,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
@@ -1103,16 +1097,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -1127,16 +1121,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
@@ -1151,16 +1145,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1175,16 +1169,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
@@ -1199,7 +1193,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1215,23 +1209,23 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1242,12 +1236,12 @@
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1258,21 +1252,21 @@
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>12</v>
@@ -1282,21 +1276,21 @@
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1306,12 +1300,12 @@
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1322,36 +1316,36 @@
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1362,12 +1356,12 @@
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
       <c r="H21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1378,21 +1372,21 @@
       <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="H22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>12</v>
@@ -1402,21 +1396,21 @@
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>12</v>
@@ -1426,21 +1420,21 @@
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>12</v>
@@ -1450,12 +1444,12 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1466,12 +1460,12 @@
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
       <c r="H26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1482,12 +1476,12 @@
       <c r="F27" s="1"/>
       <c r="G27" s="2"/>
       <c r="H27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1498,12 +1492,12 @@
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
       <c r="H28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1514,12 +1508,12 @@
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
       <c r="H29" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1530,12 +1524,12 @@
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
       <c r="H30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1546,12 +1540,12 @@
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
       <c r="H31" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1562,12 +1556,12 @@
       <c r="F32" s="1"/>
       <c r="G32" s="2"/>
       <c r="H32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1578,12 +1572,12 @@
       <c r="F33" s="1"/>
       <c r="G33" s="2"/>
       <c r="H33" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1594,12 +1588,12 @@
       <c r="F34" s="1"/>
       <c r="G34" s="2"/>
       <c r="H34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1610,12 +1604,12 @@
       <c r="F35" s="1"/>
       <c r="G35" s="2"/>
       <c r="H35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1626,12 +1620,12 @@
       <c r="F36" s="1"/>
       <c r="G36" s="2"/>
       <c r="H36" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1642,12 +1636,12 @@
       <c r="F37" s="1"/>
       <c r="G37" s="2"/>
       <c r="H37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1658,12 +1652,12 @@
       <c r="F38" s="1"/>
       <c r="G38" s="2"/>
       <c r="H38" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1674,12 +1668,12 @@
       <c r="F39" s="1"/>
       <c r="G39" s="2"/>
       <c r="H39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1690,12 +1684,12 @@
       <c r="F40" s="1"/>
       <c r="G40" s="2"/>
       <c r="H40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1706,12 +1700,12 @@
       <c r="F41" s="1"/>
       <c r="G41" s="2"/>
       <c r="H41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1722,12 +1716,12 @@
       <c r="F42" s="1"/>
       <c r="G42" s="2"/>
       <c r="H42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1738,12 +1732,12 @@
       <c r="F43" s="1"/>
       <c r="G43" s="2"/>
       <c r="H43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1754,12 +1748,12 @@
       <c r="F44" s="1"/>
       <c r="G44" s="2"/>
       <c r="H44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1770,12 +1764,12 @@
       <c r="F45" s="1"/>
       <c r="G45" s="2"/>
       <c r="H45" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1786,12 +1780,12 @@
       <c r="F46" s="1"/>
       <c r="G46" s="2"/>
       <c r="H46" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1802,12 +1796,12 @@
       <c r="F47" s="1"/>
       <c r="G47" s="2"/>
       <c r="H47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1818,12 +1812,12 @@
       <c r="F48" s="1"/>
       <c r="G48" s="2"/>
       <c r="H48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1834,12 +1828,12 @@
       <c r="F49" s="1"/>
       <c r="G49" s="2"/>
       <c r="H49" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1850,12 +1844,12 @@
       <c r="F50" s="1"/>
       <c r="G50" s="2"/>
       <c r="H50" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1866,12 +1860,12 @@
       <c r="F51" s="1"/>
       <c r="G51" s="2"/>
       <c r="H51" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1882,12 +1876,12 @@
       <c r="F52" s="1"/>
       <c r="G52" s="2"/>
       <c r="H52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1898,12 +1892,12 @@
       <c r="F53" s="1"/>
       <c r="G53" s="2"/>
       <c r="H53" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1914,12 +1908,12 @@
       <c r="F54" s="1"/>
       <c r="G54" s="2"/>
       <c r="H54" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1930,12 +1924,12 @@
       <c r="F55" s="1"/>
       <c r="G55" s="2"/>
       <c r="H55" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1946,12 +1940,12 @@
       <c r="F56" s="1"/>
       <c r="G56" s="2"/>
       <c r="H56" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1962,12 +1956,12 @@
       <c r="F57" s="1"/>
       <c r="G57" s="2"/>
       <c r="H57" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1978,21 +1972,21 @@
       <c r="F58" s="1"/>
       <c r="G58" s="2"/>
       <c r="H58" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>12</v>
@@ -2002,21 +1996,21 @@
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>12</v>
@@ -2026,21 +2020,21 @@
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>12</v>
@@ -2050,28 +2044,28 @@
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="2"/>
       <c r="H62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2082,12 +2076,12 @@
       <c r="F63" s="1"/>
       <c r="G63" s="2"/>
       <c r="H63" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2098,12 +2092,12 @@
       <c r="F64" s="1"/>
       <c r="G64" s="2"/>
       <c r="H64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2114,12 +2108,12 @@
       <c r="F65" s="1"/>
       <c r="G65" s="2"/>
       <c r="H65" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2130,12 +2124,12 @@
       <c r="F66" s="1"/>
       <c r="G66" s="2"/>
       <c r="H66" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2146,28 +2140,28 @@
       <c r="F67" s="1"/>
       <c r="G67" s="2"/>
       <c r="H67" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="2"/>
       <c r="H68" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2178,12 +2172,12 @@
       <c r="F69" s="1"/>
       <c r="G69" s="2"/>
       <c r="H69" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2194,12 +2188,12 @@
       <c r="F70" s="1"/>
       <c r="G70" s="2"/>
       <c r="H70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2210,12 +2204,12 @@
       <c r="F71" s="1"/>
       <c r="G71" s="2"/>
       <c r="H71" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2226,12 +2220,12 @@
       <c r="F72" s="1"/>
       <c r="G72" s="2"/>
       <c r="H72" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2242,12 +2236,12 @@
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
       <c r="H73" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2258,12 +2252,12 @@
       <c r="F74" s="1"/>
       <c r="G74" s="2"/>
       <c r="H74" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2274,12 +2268,12 @@
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2290,12 +2284,12 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2306,12 +2300,12 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2322,12 +2316,12 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2338,12 +2332,12 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2354,21 +2348,21 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>12</v>
@@ -2378,21 +2372,21 @@
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>12</v>
@@ -2402,21 +2396,21 @@
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>12</v>
@@ -2426,28 +2420,28 @@
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2458,12 +2452,12 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2474,39 +2468,39 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
